--- a/TL3/mediciones/Rta en frec/X10.xlsx
+++ b/TL3/mediciones/Rta en frec/X10.xlsx
@@ -335,7 +335,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A10" sqref="A10:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
